--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward471419_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward471419_resonant.xlsx
@@ -1109,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507352</v>
+        <v>50.00000283507351</v>
       </c>
       <c r="D2">
-        <v>50.00000283507352</v>
+        <v>50.00000283507351</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="G2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="H2">
         <v>0.01094228901744874</v>
@@ -1142,7 +1142,7 @@
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.693607481936279E-11</v>
+        <v>-8.692815677819154E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464775</v>
+        <v>0.9526279474464782</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172767</v>
+        <v>0.952627982117277</v>
       </c>
       <c r="Q3">
-        <v>8.709499246996188E-08</v>
+        <v>8.709509542478636E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777265</v>
+        <v>0.9526279330777273</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860256</v>
+        <v>0.9526279964860258</v>
       </c>
       <c r="Q4">
-        <v>5.191990347282305E-07</v>
+        <v>5.191990848904037E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994807921</v>
+        <v>179.999999480792</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1319,16 +1319,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027247</v>
+        <v>0.9526279361027264</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610262</v>
+        <v>0.9526279934610259</v>
       </c>
       <c r="Q5">
-        <v>4.282295832224248E-07</v>
+        <v>4.282297819176669E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652239</v>
+        <v>0.9526279315652258</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985258</v>
+        <v>0.9526279979985257</v>
       </c>
       <c r="Q6">
-        <v>5.646834142251723E-07</v>
+        <v>5.646836581939866E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783973</v>
+        <v>0.9526279277839754</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797757</v>
+        <v>0.952628001779775</v>
       </c>
       <c r="Q7">
-        <v>6.783949511990454E-07</v>
+        <v>6.783952147850347E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277226</v>
+        <v>0.9526279270277253</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360256</v>
+        <v>0.9526280025360252</v>
       </c>
       <c r="Q8">
-        <v>7.011372570601203E-07</v>
+        <v>7.011375255890033E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152225</v>
+        <v>0.952627925515225</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485255</v>
+        <v>0.9526280040485252</v>
       </c>
       <c r="Q9">
-        <v>7.466218781298922E-07</v>
+        <v>7.466221417035373E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1614,16 +1614,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027221</v>
+        <v>0.9526279240027247</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610256</v>
+        <v>0.9526280055610252</v>
       </c>
       <c r="Q10">
-        <v>7.921064882606811E-07</v>
+        <v>7.921067518268713E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1673,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464722</v>
+        <v>0.9526279232464745</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172756</v>
+        <v>0.952628006317275</v>
       </c>
       <c r="Q11">
-        <v>8.148487927627507E-07</v>
+        <v>8.148490563263749E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777269</v>
+        <v>0.9526279451777276</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860272</v>
       </c>
       <c r="Q12">
-        <v>1.55321914501209E-07</v>
+        <v>1.553220131723608E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777276</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860269</v>
       </c>
       <c r="Q13">
-        <v>1.55321866260643E-07</v>
+        <v>1.553220201083917E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446691</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627942908977</v>
+        <v>0.9526279429089779</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547763</v>
+        <v>0.9526279866547767</v>
       </c>
       <c r="Q14">
-        <v>2.235488939441625E-07</v>
+        <v>2.235489733276934E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.952627941396476</v>
+        <v>0.9526279413964772</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.9526279881672765</v>
       </c>
       <c r="Q15">
-        <v>2.69033438867816E-07</v>
+        <v>2.690335882454152E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339778</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297772</v>
       </c>
       <c r="Q16">
-        <v>1.325796071910614E-07</v>
+        <v>1.325797020095615E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339771</v>
+        <v>0.9526279459339778</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297766</v>
+        <v>0.9526279836297769</v>
       </c>
       <c r="Q17">
-        <v>1.325795819212128E-07</v>
+        <v>1.325797121317494E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674114</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277268</v>
+        <v>0.9526279391277276</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360259</v>
+        <v>0.9526279904360263</v>
       </c>
       <c r="Q18">
-        <v>3.37260491280485E-07</v>
+        <v>3.372605549606642E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2145,22 +2145,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027264</v>
+        <v>0.9526279361027274</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610256</v>
+        <v>0.9526279934610259</v>
       </c>
       <c r="Q19">
-        <v>4.282297738859931E-07</v>
+        <v>4.282298173565307E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995717614</v>
+        <v>179.9999995717613</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339765</v>
+        <v>0.9526279338339774</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297755</v>
+        <v>0.9526279957297759</v>
       </c>
       <c r="Q20">
-        <v>4.964567247556775E-07</v>
+        <v>4.964567750988776E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2263,22 +2263,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777265</v>
+        <v>0.9526279330777273</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860256</v>
+        <v>0.9526279964860258</v>
       </c>
       <c r="Q21">
-        <v>5.191990385834482E-07</v>
+        <v>5.191990773584287E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994807921</v>
+        <v>179.999999480792</v>
       </c>
     </row>
   </sheetData>
@@ -2376,19 +2376,19 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686274</v>
+        <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -2574,7 +2574,7 @@
         <v>1.102503199127358</v>
       </c>
       <c r="O5">
-        <v>1.073936237813092</v>
+        <v>1.073936237813093</v>
       </c>
       <c r="P5">
         <v>1.084507397868702</v>
@@ -2642,7 +2642,7 @@
         <v>29.14059842362746</v>
       </c>
       <c r="R6">
-        <v>-91.10214736483698</v>
+        <v>-91.10214736483699</v>
       </c>
       <c r="S6">
         <v>150.3279626332291</v>
@@ -2701,7 +2701,7 @@
         <v>29.14059842563627</v>
       </c>
       <c r="R7">
-        <v>-91.10214735147136</v>
+        <v>-91.10214735147137</v>
       </c>
       <c r="S7">
         <v>150.3279626377062</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.102503198833457</v>
+        <v>1.102503198833458</v>
       </c>
       <c r="O8">
         <v>1.073936237677326</v>
@@ -2757,7 +2757,7 @@
         <v>1.084507398100258</v>
       </c>
       <c r="Q8">
-        <v>29.14059842603803</v>
+        <v>29.14059842603804</v>
       </c>
       <c r="R8">
         <v>-91.10214734879824</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.10250319873549</v>
+        <v>1.102503198735491</v>
       </c>
       <c r="O10">
         <v>1.07393623763207</v>
@@ -2875,7 +2875,7 @@
         <v>1.084507398177443</v>
       </c>
       <c r="Q10">
-        <v>29.14059842764508</v>
+        <v>29.14059842764509</v>
       </c>
       <c r="R10">
         <v>-91.10214733810575</v>
@@ -2928,16 +2928,16 @@
         <v>1.102503198710999</v>
       </c>
       <c r="O11">
-        <v>1.073936237620756</v>
+        <v>1.073936237620757</v>
       </c>
       <c r="P11">
         <v>1.084507398196739</v>
       </c>
       <c r="Q11">
-        <v>29.14059842804684</v>
+        <v>29.14059842804685</v>
       </c>
       <c r="R11">
-        <v>-91.10214733543262</v>
+        <v>-91.10214733543263</v>
       </c>
       <c r="S11">
         <v>150.3279626430788</v>
@@ -3164,7 +3164,7 @@
         <v>1.1025031992988</v>
       </c>
       <c r="O15">
-        <v>1.073936237892289</v>
+        <v>1.07393623789229</v>
       </c>
       <c r="P15">
         <v>1.084507397733627</v>
@@ -3832,7 +3832,7 @@
         <v>1.084507397879575</v>
       </c>
       <c r="Q5">
-        <v>29.14059842112402</v>
+        <v>29.14059842112403</v>
       </c>
       <c r="R5">
         <v>-91.10214737876403</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.102503198809507</v>
+        <v>1.102503198809508</v>
       </c>
       <c r="O8">
         <v>1.073936237650113</v>
@@ -4009,10 +4009,10 @@
         <v>1.084507398111132</v>
       </c>
       <c r="Q8">
-        <v>29.14059842594517</v>
+        <v>29.14059842594518</v>
       </c>
       <c r="R8">
-        <v>-91.10214734668655</v>
+        <v>-91.10214734668656</v>
       </c>
       <c r="S8">
         <v>150.327962639733</v>
@@ -4062,7 +4062,7 @@
         <v>1.102503198760524</v>
       </c>
       <c r="O9">
-        <v>1.073936237627485</v>
+        <v>1.073936237627486</v>
       </c>
       <c r="P9">
         <v>1.084507398149724</v>
@@ -4071,7 +4071,7 @@
         <v>29.1405984267487</v>
       </c>
       <c r="R9">
-        <v>-91.1021473413403</v>
+        <v>-91.10214734134031</v>
       </c>
       <c r="S9">
         <v>150.3279626415238</v>
@@ -4186,7 +4186,7 @@
         <v>1.084507398207613</v>
       </c>
       <c r="Q11">
-        <v>29.14059842795399</v>
+        <v>29.140598427954</v>
       </c>
       <c r="R11">
         <v>-91.10214733332094</v>
@@ -4360,7 +4360,7 @@
         <v>1.073936237887705</v>
       </c>
       <c r="P14">
-        <v>1.084507397705908</v>
+        <v>1.084507397705909</v>
       </c>
       <c r="Q14">
         <v>29.14059841750815</v>
@@ -4481,7 +4481,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q16">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R16">
         <v>-91.10214741351463</v>
@@ -4540,10 +4540,10 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R17">
-        <v>-91.10214741351463</v>
+        <v>-91.10214741351464</v>
       </c>
       <c r="S17">
         <v>150.3279626173473</v>
@@ -4599,7 +4599,7 @@
         <v>1.08450739780239</v>
       </c>
       <c r="Q18">
-        <v>29.14059841951697</v>
+        <v>29.14059841951698</v>
       </c>
       <c r="R18">
         <v>-91.10214738945653</v>
@@ -4658,7 +4658,7 @@
         <v>1.084507397879575</v>
       </c>
       <c r="Q19">
-        <v>29.14059842112403</v>
+        <v>29.14059842112402</v>
       </c>
       <c r="R19">
         <v>-91.10214737876403</v>
@@ -4717,7 +4717,7 @@
         <v>1.084507397937464</v>
       </c>
       <c r="Q20">
-        <v>29.14059842232932</v>
+        <v>29.14059842232931</v>
       </c>
       <c r="R20">
         <v>-91.10214737074467</v>
@@ -4865,25 +4865,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -4892,10 +4892,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.8660254037845055</v>
@@ -4907,7 +4907,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720094406120944E-10</v>
+        <v>1.720052286436871E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4957,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054648</v>
+        <v>0.8660254194054646</v>
       </c>
       <c r="Q3">
-        <v>8.659293913594348E-08</v>
+        <v>8.659297247688266E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,16 +5016,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015304</v>
+        <v>0.866025375101531</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q4">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328498498062E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -5075,22 +5075,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515307</v>
+        <v>0.8660253778515297</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179618</v>
       </c>
       <c r="Q5">
-        <v>7.415718312251134E-07</v>
+        <v>7.415718403554483E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5134,16 +5134,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265317</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429618</v>
+        <v>0.8660254338429606</v>
       </c>
       <c r="Q6">
-        <v>1.003563397001439E-06</v>
+        <v>1.003563379128969E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890329</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804596</v>
       </c>
       <c r="Q7">
-        <v>1.221889697911259E-06</v>
+        <v>1.221889671440263E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5252,22 +5252,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015331</v>
+        <v>0.8660253696015312</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679611</v>
+        <v>0.8660254379679593</v>
       </c>
       <c r="Q8">
-        <v>1.265554953710821E-06</v>
+        <v>1.265554921556765E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344369</v>
+        <v>179.9999987344368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5311,22 +5311,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265332</v>
+        <v>0.8660253682265314</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429609</v>
+        <v>0.8660254393429591</v>
       </c>
       <c r="Q9">
-        <v>1.352885475375469E-06</v>
+        <v>1.352885440408861E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471064</v>
+        <v>179.9999986471063</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5370,22 +5370,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515335</v>
+        <v>0.8660253668515316</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179588</v>
       </c>
       <c r="Q10">
-        <v>1.440215999099244E-06</v>
+        <v>1.44021595988338E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597759</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5429,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640337</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054604</v>
+        <v>0.8660254414054587</v>
       </c>
       <c r="Q11">
-        <v>1.483881255568643E-06</v>
+        <v>1.48388121634988E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161107</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5494,16 +5494,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679646</v>
+        <v>0.8660254214679644</v>
       </c>
       <c r="Q12">
-        <v>2.175887004705142E-07</v>
+        <v>2.175887495135951E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824027</v>
+        <v>179.9999997824026</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0.8660254214679644</v>
       </c>
       <c r="Q13">
-        <v>2.175886925145264E-07</v>
+        <v>2.175887373762884E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304639</v>
+        <v>0.8660254235304637</v>
       </c>
       <c r="Q14">
-        <v>3.485844602277924E-07</v>
+        <v>3.485845105773292E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5665,22 +5665,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640294</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054637</v>
+        <v>0.8660254249054632</v>
       </c>
       <c r="Q15">
-        <v>4.35915007230062E-07</v>
+        <v>4.359150361779906E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804646</v>
+        <v>0.8660254207804644</v>
       </c>
       <c r="Q16">
-        <v>1.739234460116232E-07</v>
+        <v>1.739234950576035E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804645</v>
       </c>
       <c r="Q17">
-        <v>1.739234363282679E-07</v>
+        <v>1.739234891590365E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015292</v>
+        <v>0.8660253806015293</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.866025426967963</v>
+        <v>0.8660254269679627</v>
       </c>
       <c r="Q18">
-        <v>5.669107169198445E-07</v>
+        <v>5.669107964329192E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5901,16 +5901,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179626</v>
+        <v>0.866025429717962</v>
       </c>
       <c r="Q19">
-        <v>7.415717199790276E-07</v>
+        <v>7.415718278028375E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890303</v>
+        <v>0.8660253757890308</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804617</v>
+        <v>0.8660254317804614</v>
       </c>
       <c r="Q20">
-        <v>8.725674687538727E-07</v>
+        <v>8.725675967057205E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015304</v>
+        <v>0.866025375101531</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679614</v>
       </c>
       <c r="Q21">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328396355142E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -6117,25 +6117,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -6144,10 +6144,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.8660254037845055</v>
@@ -6159,7 +6159,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720094406120944E-10</v>
+        <v>1.720052286436871E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054648</v>
+        <v>0.8660254194054646</v>
       </c>
       <c r="Q3">
-        <v>8.659293913594348E-08</v>
+        <v>8.659297247688266E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,16 +6268,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015304</v>
+        <v>0.866025375101531</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q4">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328498498062E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6327,22 +6327,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515307</v>
+        <v>0.8660253778515297</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179618</v>
       </c>
       <c r="Q5">
-        <v>7.415718312251134E-07</v>
+        <v>7.415718403554483E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6386,16 +6386,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265317</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429618</v>
+        <v>0.8660254338429606</v>
       </c>
       <c r="Q6">
-        <v>1.003563397001439E-06</v>
+        <v>1.003563379128969E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6445,22 +6445,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890329</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804596</v>
       </c>
       <c r="Q7">
-        <v>1.221889697911259E-06</v>
+        <v>1.221889671440263E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6504,22 +6504,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015331</v>
+        <v>0.8660253696015312</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679611</v>
+        <v>0.8660254379679593</v>
       </c>
       <c r="Q8">
-        <v>1.265554953710821E-06</v>
+        <v>1.265554921556765E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344369</v>
+        <v>179.9999987344368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6563,22 +6563,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265332</v>
+        <v>0.8660253682265314</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429609</v>
+        <v>0.8660254393429591</v>
       </c>
       <c r="Q9">
-        <v>1.352885475375469E-06</v>
+        <v>1.352885440408861E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471064</v>
+        <v>179.9999986471063</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6622,22 +6622,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515335</v>
+        <v>0.8660253668515316</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179588</v>
       </c>
       <c r="Q10">
-        <v>1.440215999099244E-06</v>
+        <v>1.44021595988338E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597759</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6681,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640337</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054604</v>
+        <v>0.8660254414054587</v>
       </c>
       <c r="Q11">
-        <v>1.483881255568643E-06</v>
+        <v>1.48388121634988E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161107</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6746,16 +6746,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679646</v>
+        <v>0.8660254214679644</v>
       </c>
       <c r="Q12">
-        <v>2.175887004705142E-07</v>
+        <v>2.175887495135951E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824027</v>
+        <v>179.9999997824026</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>0.8660254214679644</v>
       </c>
       <c r="Q13">
-        <v>2.175886925145264E-07</v>
+        <v>2.175887373762884E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6864,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304639</v>
+        <v>0.8660254235304637</v>
       </c>
       <c r="Q14">
-        <v>3.485844602277924E-07</v>
+        <v>3.485845105773292E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6917,22 +6917,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640294</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054637</v>
+        <v>0.8660254249054632</v>
       </c>
       <c r="Q15">
-        <v>4.35915007230062E-07</v>
+        <v>4.359150361779906E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804646</v>
+        <v>0.8660254207804644</v>
       </c>
       <c r="Q16">
-        <v>1.739234460116232E-07</v>
+        <v>1.739234950576035E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804645</v>
       </c>
       <c r="Q17">
-        <v>1.739234363282679E-07</v>
+        <v>1.739234891590365E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,16 +7094,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015292</v>
+        <v>0.8660253806015293</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.866025426967963</v>
+        <v>0.8660254269679627</v>
       </c>
       <c r="Q18">
-        <v>5.669107169198445E-07</v>
+        <v>5.669107964329192E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7153,16 +7153,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179626</v>
+        <v>0.866025429717962</v>
       </c>
       <c r="Q19">
-        <v>7.415717199790276E-07</v>
+        <v>7.415718278028375E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -7212,16 +7212,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890303</v>
+        <v>0.8660253757890308</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804617</v>
+        <v>0.8660254317804614</v>
       </c>
       <c r="Q20">
-        <v>8.725674687538727E-07</v>
+        <v>8.725675967057205E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -7271,16 +7271,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015304</v>
+        <v>0.866025375101531</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679614</v>
       </c>
       <c r="Q21">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328396355142E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -7396,10 +7396,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
@@ -7523,10 +7523,10 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -7585,10 +7585,10 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -7762,7 +7762,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179663</v>
+        <v>0.9840663106179662</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -7821,7 +7821,7 @@
         <v>0.9731342573208043</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779517</v>
+        <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -7936,13 +7936,13 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
         <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -8004,7 +8004,7 @@
         <v>29.02648251913994</v>
       </c>
       <c r="R12">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S12">
         <v>150.3745452886059</v>
@@ -8063,7 +8063,7 @@
         <v>29.02648251913994</v>
       </c>
       <c r="R13">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S13">
         <v>150.3745452886059</v>
@@ -8113,13 +8113,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -8175,7 +8175,7 @@
         <v>0.9731342572117611</v>
       </c>
       <c r="P15">
-        <v>0.9840663100481062</v>
+        <v>0.9840663100481061</v>
       </c>
       <c r="Q15">
         <v>29.02648252448946</v>
@@ -8228,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.002551065549822</v>
+        <v>1.002551065549823</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
@@ -8243,7 +8243,7 @@
         <v>-91.24839365204943</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -8302,7 +8302,7 @@
         <v>-91.24839365204943</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -8408,10 +8408,10 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481088</v>
+        <v>0.9731342572481086</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -8467,7 +8467,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -8526,10 +8526,10 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -8639,7 +8639,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -8648,10 +8648,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
@@ -8775,10 +8775,10 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -8837,10 +8837,10 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -9014,7 +9014,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179663</v>
+        <v>0.9840663106179662</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -9073,7 +9073,7 @@
         <v>0.9731342573208043</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779517</v>
+        <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -9188,13 +9188,13 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
         <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -9256,7 +9256,7 @@
         <v>29.02648251913994</v>
       </c>
       <c r="R12">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S12">
         <v>150.3745452886059</v>
@@ -9315,7 +9315,7 @@
         <v>29.02648251913994</v>
       </c>
       <c r="R13">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S13">
         <v>150.3745452886059</v>
@@ -9365,13 +9365,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -9427,7 +9427,7 @@
         <v>0.9731342572117611</v>
       </c>
       <c r="P15">
-        <v>0.9840663100481062</v>
+        <v>0.9840663100481061</v>
       </c>
       <c r="Q15">
         <v>29.02648252448946</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.002551065549822</v>
+        <v>1.002551065549823</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
@@ -9495,7 +9495,7 @@
         <v>-91.24839365204943</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9554,7 +9554,7 @@
         <v>-91.24839365204943</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -9660,10 +9660,10 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481088</v>
+        <v>0.9731342572481086</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -9719,7 +9719,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -9778,10 +9778,10 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -9903,7 +9903,7 @@
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646507</v>
+        <v>0.01094540889646508</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725803613437</v>
+        <v>0.6350725803613427</v>
       </c>
       <c r="O3">
         <v>1.100000023884846</v>
       </c>
       <c r="P3">
-        <v>0.6350673924404842</v>
+        <v>0.635067392440484</v>
       </c>
       <c r="Q3">
-        <v>60.00252971452033</v>
+        <v>60.00252971452036</v>
       </c>
       <c r="R3">
         <v>-89.99999999999575</v>
       </c>
       <c r="S3">
-        <v>119.9977404895151</v>
+        <v>119.997740489515</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350725988789422</v>
+        <v>0.6350725988789409</v>
       </c>
       <c r="O4">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P4">
-        <v>0.6350673822186061</v>
+        <v>0.6350673822186046</v>
       </c>
       <c r="Q4">
-        <v>60.00252981471544</v>
+        <v>60.00252981471571</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S4">
-        <v>119.997741886172</v>
+        <v>119.9977418861719</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725949804997</v>
+        <v>0.6350725949804984</v>
       </c>
       <c r="O5">
         <v>1.100000023884847</v>
       </c>
       <c r="P5">
-        <v>0.6350673843705804</v>
+        <v>0.6350673843705793</v>
       </c>
       <c r="Q5">
-        <v>60.00252979362192</v>
+        <v>60.00252979362206</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S5">
-        <v>119.9977415921389</v>
+        <v>119.9977415921387</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726008281623</v>
+        <v>0.6350726008281606</v>
       </c>
       <c r="O6">
         <v>1.100000023884847</v>
       </c>
       <c r="P6">
-        <v>0.6350673811426188</v>
+        <v>0.6350673811426172</v>
       </c>
       <c r="Q6">
-        <v>60.00252982526255</v>
+        <v>60.00252982526276</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S6">
-        <v>119.9977420331885</v>
+        <v>119.9977420331882</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726057012144</v>
+        <v>0.6350726057012124</v>
       </c>
       <c r="O7">
-        <v>1.100000023884848</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P7">
-        <v>0.6350673784526508</v>
+        <v>0.6350673784526487</v>
       </c>
       <c r="Q7">
-        <v>60.00252985162975</v>
+        <v>60.00252985163004</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999564</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S7">
-        <v>119.9977424007298</v>
+        <v>119.9977424007295</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10281,22 +10281,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350726066758249</v>
+        <v>0.6350726066758228</v>
       </c>
       <c r="O8">
-        <v>1.100000023884848</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P8">
-        <v>0.6350673779146569</v>
+        <v>0.6350673779146548</v>
       </c>
       <c r="Q8">
-        <v>60.0025298569032</v>
+        <v>60.00252985690349</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999564</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S8">
-        <v>119.997742474238</v>
+        <v>119.9977424742377</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -10343,22 +10343,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726086250453</v>
+        <v>0.6350726086250434</v>
       </c>
       <c r="O9">
         <v>1.100000023884848</v>
       </c>
       <c r="P9">
-        <v>0.63506737683867</v>
+        <v>0.635067376838668</v>
       </c>
       <c r="Q9">
-        <v>60.0025298674501</v>
+        <v>60.00252986745038</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S9">
-        <v>119.9977426212545</v>
+        <v>119.9977426212542</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.635072610574266</v>
+        <v>0.6350726105742639</v>
       </c>
       <c r="O10">
         <v>1.100000023884848</v>
       </c>
       <c r="P10">
-        <v>0.6350673757626826</v>
+        <v>0.6350673757626807</v>
       </c>
       <c r="Q10">
-        <v>60.00252987799702</v>
+        <v>60.0025298779973</v>
       </c>
       <c r="R10">
         <v>-89.99999999999561</v>
       </c>
       <c r="S10">
-        <v>119.997742768271</v>
+        <v>119.9977427682707</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350726115488763</v>
+        <v>0.6350726115488741</v>
       </c>
       <c r="O11">
         <v>1.100000023884848</v>
       </c>
       <c r="P11">
-        <v>0.6350673752246887</v>
+        <v>0.6350673752246867</v>
       </c>
       <c r="Q11">
-        <v>60.00252988327051</v>
+        <v>60.00252988327079</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999559</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S11">
-        <v>119.9977428417793</v>
+        <v>119.9977428417789</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,22 +10529,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725832851748</v>
+        <v>0.6350725832851737</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
       </c>
       <c r="P12">
-        <v>0.6350673908265025</v>
+        <v>0.6350673908265028</v>
       </c>
       <c r="Q12">
-        <v>60.00252973034071</v>
+        <v>60.00252973034076</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S12">
-        <v>119.9977407100398</v>
+        <v>119.9977407100397</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725832851747</v>
+        <v>0.6350725832851738</v>
       </c>
       <c r="O13">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P13">
-        <v>0.6350673908265029</v>
+        <v>0.6350673908265028</v>
       </c>
       <c r="Q13">
         <v>60.00252973034075</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S13">
-        <v>119.9977407100398</v>
+        <v>119.9977407100397</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725862090062</v>
+        <v>0.6350725862090054</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
       </c>
       <c r="P14">
-        <v>0.6350673892125229</v>
+        <v>0.6350673892125223</v>
       </c>
       <c r="Q14">
-        <v>60.00252974616085</v>
+        <v>60.00252974616097</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S14">
-        <v>119.9977409305646</v>
+        <v>119.9977409305645</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725881582269</v>
+        <v>0.6350725881582256</v>
       </c>
       <c r="O15">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P15">
-        <v>0.6350673881365356</v>
+        <v>0.635067388136535</v>
       </c>
       <c r="Q15">
-        <v>60.00252975670783</v>
+        <v>60.00252975670792</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S15">
-        <v>119.9977410775811</v>
+        <v>119.997741077581</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725823105644</v>
+        <v>0.6350725823105633</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
@@ -10786,7 +10786,7 @@
         <v>0.6350673913644965</v>
       </c>
       <c r="Q16">
-        <v>60.00252972506726</v>
+        <v>60.00252972506729</v>
       </c>
       <c r="R16">
         <v>-89.99999999999574</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725823105644</v>
+        <v>0.6350725823105635</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
       </c>
       <c r="P17">
-        <v>0.6350673913644967</v>
+        <v>0.6350673913644965</v>
       </c>
       <c r="Q17">
-        <v>60.00252972506726</v>
+        <v>60.00252972506729</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>119.9977406365316</v>
+        <v>119.9977406365315</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725910820585</v>
+        <v>0.6350725910820575</v>
       </c>
       <c r="O18">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P18">
-        <v>0.6350673865225552</v>
+        <v>0.6350673865225543</v>
       </c>
       <c r="Q18">
-        <v>60.00252977252797</v>
+        <v>60.00252977252816</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S18">
-        <v>119.9977412981059</v>
+        <v>119.9977412981058</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,19 +10963,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725949805003</v>
+        <v>0.6350725949804993</v>
       </c>
       <c r="O19">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350673843705809</v>
+        <v>0.6350673843705799</v>
       </c>
       <c r="Q19">
-        <v>60.00252979362169</v>
+        <v>60.00252979362192</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S19">
         <v>119.9977415921389</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350725979043318</v>
+        <v>0.6350725979043305</v>
       </c>
       <c r="O20">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350673827565999</v>
+        <v>0.6350673827565987</v>
       </c>
       <c r="Q20">
-        <v>60.00252980944199</v>
+        <v>60.00252980944224</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S20">
-        <v>119.9977418126637</v>
+        <v>119.9977418126636</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350725988789422</v>
+        <v>0.6350725988789409</v>
       </c>
       <c r="O21">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.6350673822186061</v>
+        <v>0.6350673822186047</v>
       </c>
       <c r="Q21">
-        <v>60.00252981471544</v>
+        <v>60.0025298147157</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S21">
-        <v>119.997741886172</v>
+        <v>119.9977418861719</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73781549470328</v>
+        <v>57.73781549470331</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3494331828789</v>
+        <v>333.349433182879</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11224,16 +11224,16 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350725641468637</v>
+        <v>0.6350725641468636</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6350674184895969</v>
+        <v>0.6350674184895968</v>
       </c>
       <c r="Q2">
-        <v>60.00252784543473</v>
+        <v>60.00252784543476</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725823189278</v>
+        <v>0.6350725823189263</v>
       </c>
       <c r="O3">
         <v>1.100000023884846</v>
       </c>
       <c r="P3">
-        <v>0.6350674019914165</v>
+        <v>0.6350674019914152</v>
       </c>
       <c r="Q3">
-        <v>60.00252861750562</v>
+        <v>60.00252861750581</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>119.9977411910505</v>
+        <v>119.9977411910503</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350726008365258</v>
+        <v>0.6350726008365241</v>
       </c>
       <c r="O4">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P4">
-        <v>0.6350673917695387</v>
+        <v>0.6350673917695363</v>
       </c>
       <c r="Q4">
-        <v>60.00252871770076</v>
+        <v>60.00252871770127</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S4">
-        <v>119.9977425877073</v>
+        <v>119.9977425877071</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,22 +11410,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725969380836</v>
+        <v>0.6350725969380814</v>
       </c>
       <c r="O5">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.6350673939215131</v>
+        <v>0.6350673939215107</v>
       </c>
       <c r="Q5">
-        <v>60.00252869660722</v>
+        <v>60.00252869660757</v>
       </c>
       <c r="R5">
         <v>-89.99999999999568</v>
       </c>
       <c r="S5">
-        <v>119.9977422936743</v>
+        <v>119.997742293674</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -11472,22 +11472,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726027857458</v>
+        <v>0.6350726027857435</v>
       </c>
       <c r="O6">
         <v>1.100000023884847</v>
       </c>
       <c r="P6">
-        <v>0.6350673906935516</v>
+        <v>0.6350673906935487</v>
       </c>
       <c r="Q6">
-        <v>60.0025287282479</v>
+        <v>60.00252872824829</v>
       </c>
       <c r="R6">
         <v>-89.99999999999565</v>
       </c>
       <c r="S6">
-        <v>119.9977427347238</v>
+        <v>119.9977427347235</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -11534,22 +11534,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726076587977</v>
+        <v>0.6350726076587954</v>
       </c>
       <c r="O7">
         <v>1.100000023884847</v>
       </c>
       <c r="P7">
-        <v>0.6350673880035835</v>
+        <v>0.6350673880035803</v>
       </c>
       <c r="Q7">
-        <v>60.00252875461512</v>
+        <v>60.00252875461555</v>
       </c>
       <c r="R7">
         <v>-89.99999999999562</v>
       </c>
       <c r="S7">
-        <v>119.9977431022651</v>
+        <v>119.9977431022647</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -11596,22 +11596,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350726086334083</v>
+        <v>0.6350726086334058</v>
       </c>
       <c r="O8">
         <v>1.100000023884847</v>
       </c>
       <c r="P8">
-        <v>0.6350673874655897</v>
+        <v>0.6350673874655864</v>
       </c>
       <c r="Q8">
-        <v>60.00252875988857</v>
+        <v>60.00252875988902</v>
       </c>
       <c r="R8">
         <v>-89.99999999999562</v>
       </c>
       <c r="S8">
-        <v>119.9977431757734</v>
+        <v>119.997743175773</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -11658,22 +11658,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726105826286</v>
+        <v>0.6350726105826262</v>
       </c>
       <c r="O9">
-        <v>1.100000023884848</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P9">
-        <v>0.6350673863896027</v>
+        <v>0.6350673863895995</v>
       </c>
       <c r="Q9">
-        <v>60.00252877043548</v>
+        <v>60.00252877043592</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999559</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S9">
-        <v>119.9977433227899</v>
+        <v>119.9977433227895</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -11720,22 +11720,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350726125318494</v>
+        <v>0.6350726125318469</v>
       </c>
       <c r="O10">
-        <v>1.100000023884848</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P10">
-        <v>0.6350673853136153</v>
+        <v>0.635067385313612</v>
       </c>
       <c r="Q10">
-        <v>60.00252878098242</v>
+        <v>60.00252878098285</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S10">
-        <v>119.9977434698064</v>
+        <v>119.9977434698059</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350726135064596</v>
+        <v>0.6350726135064571</v>
       </c>
       <c r="O11">
         <v>1.100000023884848</v>
       </c>
       <c r="P11">
-        <v>0.6350673847756214</v>
+        <v>0.6350673847756182</v>
       </c>
       <c r="Q11">
-        <v>60.00252878625589</v>
+        <v>60.00252878625633</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S11">
-        <v>119.9977435433146</v>
+        <v>119.9977435433142</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,22 +11844,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725852427589</v>
+        <v>0.6350725852427573</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
       </c>
       <c r="P12">
-        <v>0.6350674003774349</v>
+        <v>0.6350674003774338</v>
       </c>
       <c r="Q12">
-        <v>60.00252863332602</v>
+        <v>60.00252863332622</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S12">
-        <v>119.9977414115752</v>
+        <v>119.997741411575</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -11906,22 +11906,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725852427589</v>
+        <v>0.6350725852427573</v>
       </c>
       <c r="O13">
         <v>1.100000023884846</v>
       </c>
       <c r="P13">
-        <v>0.6350674003774351</v>
+        <v>0.6350674003774339</v>
       </c>
       <c r="Q13">
-        <v>60.00252863332604</v>
+        <v>60.00252863332619</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S13">
-        <v>119.9977414115752</v>
+        <v>119.997741411575</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -11968,22 +11968,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725881665903</v>
+        <v>0.6350725881665886</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
       </c>
       <c r="P14">
-        <v>0.6350673987634553</v>
+        <v>0.6350673987634536</v>
       </c>
       <c r="Q14">
-        <v>60.00252864914616</v>
+        <v>60.00252864914648</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S14">
-        <v>119.9977416321</v>
+        <v>119.9977416320998</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -12030,22 +12030,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725901158109</v>
+        <v>0.635072590115809</v>
       </c>
       <c r="O15">
         <v>1.100000023884846</v>
       </c>
       <c r="P15">
-        <v>0.6350673976874679</v>
+        <v>0.6350673976874661</v>
       </c>
       <c r="Q15">
-        <v>60.00252865969315</v>
+        <v>60.00252865969341</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
       </c>
       <c r="S15">
-        <v>119.9977417791165</v>
+        <v>119.9977417791163</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -12092,22 +12092,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725842681485</v>
+        <v>0.6350725842681469</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
       </c>
       <c r="P16">
-        <v>0.6350674009154289</v>
+        <v>0.6350674009154277</v>
       </c>
       <c r="Q16">
-        <v>60.00252862805256</v>
+        <v>60.00252862805275</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S16">
-        <v>119.9977413380669</v>
+        <v>119.9977413380668</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -12154,22 +12154,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725842681485</v>
+        <v>0.6350725842681471</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
       </c>
       <c r="P17">
-        <v>0.6350674009154291</v>
+        <v>0.6350674009154278</v>
       </c>
       <c r="Q17">
-        <v>60.00252862805256</v>
+        <v>60.00252862805272</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>119.997741338067</v>
+        <v>119.9977413380668</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725930396425</v>
+        <v>0.6350725930396407</v>
       </c>
       <c r="O18">
         <v>1.100000023884846</v>
       </c>
       <c r="P18">
-        <v>0.6350673960734878</v>
+        <v>0.6350673960734857</v>
       </c>
       <c r="Q18">
-        <v>60.00252867551329</v>
+        <v>60.00252867551369</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S18">
-        <v>119.9977419996413</v>
+        <v>119.9977419996411</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725969380843</v>
+        <v>0.6350725969380825</v>
       </c>
       <c r="O19">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P19">
-        <v>0.6350673939215133</v>
+        <v>0.6350673939215111</v>
       </c>
       <c r="Q19">
-        <v>60.00252869660701</v>
+        <v>60.00252869660746</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
-        <v>119.9977422936743</v>
+        <v>119.9977422936741</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350725998619156</v>
+        <v>0.6350725998619134</v>
       </c>
       <c r="O20">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P20">
-        <v>0.6350673923075324</v>
+        <v>0.6350673923075301</v>
       </c>
       <c r="Q20">
-        <v>60.00252871242731</v>
+        <v>60.00252871242781</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S20">
-        <v>119.9977425141991</v>
+        <v>119.9977425141988</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350726008365258</v>
+        <v>0.6350726008365239</v>
       </c>
       <c r="O21">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P21">
-        <v>0.6350673917695387</v>
+        <v>0.6350673917695363</v>
       </c>
       <c r="Q21">
-        <v>60.00252871770076</v>
+        <v>60.00252871770127</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S21">
-        <v>119.9977425877073</v>
+        <v>119.9977425877071</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646507</v>
+        <v>0.01094540889646508</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
@@ -12669,10 +12669,10 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P4">
-        <v>1.096496879204243</v>
+        <v>1.096496879204242</v>
       </c>
       <c r="Q4">
-        <v>29.92212937400229</v>
+        <v>29.9221293740023</v>
       </c>
       <c r="R4">
         <v>-89.99999999999635</v>
@@ -13171,7 +13171,7 @@
         <v>29.92212936198631</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S12">
         <v>149.5246563017193</v>
@@ -13233,7 +13233,7 @@
         <v>29.92212936198631</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246563017193</v>
@@ -13540,10 +13540,10 @@
         <v>1.096496879285568</v>
       </c>
       <c r="Q18">
-        <v>29.9221293679943</v>
+        <v>29.92212936799431</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S18">
         <v>149.5246563063338</v>
@@ -13664,7 +13664,7 @@
         <v>1.096496879214408</v>
       </c>
       <c r="Q20">
-        <v>29.9221293732513</v>
+        <v>29.92212937325129</v>
       </c>
       <c r="R20">
         <v>-89.99999999999635</v>
@@ -13723,10 +13723,10 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P21">
-        <v>1.096496879204243</v>
+        <v>1.096496879204242</v>
       </c>
       <c r="Q21">
-        <v>29.92212937400229</v>
+        <v>29.9221293740023</v>
       </c>
       <c r="R21">
         <v>-89.99999999999635</v>
@@ -14418,13 +14418,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P3">
-        <v>1.09649687938509</v>
+        <v>1.096496879385089</v>
       </c>
       <c r="Q3">
         <v>29.92212936052923</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.5246563004598</v>
@@ -14486,7 +14486,7 @@
         <v>29.92212937479822</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246563114193</v>
@@ -14855,7 +14855,7 @@
         <v>1.096496879069955</v>
       </c>
       <c r="Q10">
-        <v>29.9221293838102</v>
+        <v>29.92212938381021</v>
       </c>
       <c r="R10">
         <v>-89.99999999999635</v>
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.09035255165443</v>
+        <v>1.090352551654429</v>
       </c>
       <c r="O11">
         <v>1.100000023842583</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496879059789</v>
       </c>
       <c r="Q11">
-        <v>29.9221293845612</v>
+        <v>29.92212938456121</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -14979,10 +14979,10 @@
         <v>1.096496879354593</v>
       </c>
       <c r="Q12">
-        <v>29.92212936278223</v>
+        <v>29.92212936278224</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S12">
         <v>149.5246563021902</v>
@@ -15041,10 +15041,10 @@
         <v>1.096496879354593</v>
       </c>
       <c r="Q13">
-        <v>29.92212936278223</v>
+        <v>29.92212936278224</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246563021902</v>
@@ -15165,10 +15165,10 @@
         <v>1.096496879303764</v>
       </c>
       <c r="Q15">
-        <v>29.92212936653722</v>
+        <v>29.92212936653723</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S15">
         <v>149.5246563050743</v>
@@ -15351,10 +15351,10 @@
         <v>1.096496879273267</v>
       </c>
       <c r="Q18">
-        <v>29.92212936879023</v>
+        <v>29.92212936879022</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S18">
         <v>149.5246563068048</v>
@@ -15475,7 +15475,7 @@
         <v>1.096496879202108</v>
       </c>
       <c r="Q20">
-        <v>29.92212937404721</v>
+        <v>29.92212937404722</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -15540,7 +15540,7 @@
         <v>29.92212937479822</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246563114193</v>
@@ -15650,16 +15650,16 @@
         <v>0.01243393518288672</v>
       </c>
       <c r="I2">
-        <v>0.12435938670569</v>
+        <v>0.1243593867056899</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526076</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -15674,16 +15674,16 @@
         <v>0.5773317846526229</v>
       </c>
       <c r="Q2">
-        <v>60.00287276714362</v>
+        <v>60.00287276714363</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>119.997431871703</v>
+        <v>119.9974318717029</v>
       </c>
       <c r="T2">
-        <v>46.19055539395241</v>
+        <v>46.19055539395242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -15727,22 +15727,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773371184169133</v>
+        <v>0.5773371184169134</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P3">
-        <v>0.5773317697850939</v>
+        <v>0.5773317697850937</v>
       </c>
       <c r="Q3">
-        <v>60.00287353246908</v>
+        <v>60.00287353246912</v>
       </c>
       <c r="R3">
         <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>119.9974328963524</v>
+        <v>119.9974328963523</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,19 +15789,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202216</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P4">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614554</v>
       </c>
       <c r="Q4">
-        <v>60.00287303628517</v>
+        <v>60.00287303628519</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S4">
         <v>119.9974348893884</v>
@@ -15851,22 +15851,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458406</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P5">
-        <v>0.5773317651874855</v>
+        <v>0.5773317651874847</v>
       </c>
       <c r="Q5">
-        <v>60.00287314074482</v>
+        <v>60.00287314074493</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
-        <v>119.9974344698019</v>
+        <v>119.9974344698018</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -15913,22 +15913,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371408574111</v>
+        <v>0.5773371408574114</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962932</v>
       </c>
       <c r="P6">
-        <v>0.5773317633484423</v>
+        <v>0.5773317633484414</v>
       </c>
       <c r="Q6">
-        <v>60.00287298405514</v>
+        <v>60.00287298405524</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999595</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S6">
-        <v>119.9974350991817</v>
+        <v>119.9974350991816</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -15975,22 +15975,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773371462003867</v>
+        <v>0.5773371462003871</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P7">
-        <v>0.5773317618159062</v>
+        <v>0.5773317618159052</v>
       </c>
       <c r="Q7">
-        <v>60.00287285348041</v>
+        <v>60.00287285348051</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S7">
-        <v>119.9974356236649</v>
+        <v>119.9974356236648</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -16037,22 +16037,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773371472689818</v>
+        <v>0.5773371472689822</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P8">
-        <v>0.5773317615093989</v>
+        <v>0.5773317615093981</v>
       </c>
       <c r="Q8">
-        <v>60.00287282736547</v>
+        <v>60.00287282736555</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S8">
-        <v>119.9974357285615</v>
+        <v>119.9974357285614</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -16099,22 +16099,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371494061721</v>
+        <v>0.5773371494061725</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962924</v>
+        <v>0.999999999996293</v>
       </c>
       <c r="P9">
-        <v>0.5773317608963846</v>
+        <v>0.5773317608963837</v>
       </c>
       <c r="Q9">
-        <v>60.00287277513556</v>
+        <v>60.00287277513565</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S9">
-        <v>119.9974359383548</v>
+        <v>119.9974359383547</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -16161,22 +16161,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371515433625</v>
+        <v>0.5773371515433628</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P10">
-        <v>0.5773317602833702</v>
+        <v>0.5773317602833694</v>
       </c>
       <c r="Q10">
-        <v>60.00287272290565</v>
+        <v>60.00287272290574</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S10">
-        <v>119.9974361481481</v>
+        <v>119.997436148148</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -16223,22 +16223,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371526119577</v>
+        <v>0.5773371526119581</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P11">
-        <v>0.577331759976863</v>
+        <v>0.5773317599768621</v>
       </c>
       <c r="Q11">
-        <v>60.0028726967907</v>
+        <v>60.0028726967908</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S11">
-        <v>119.9974362530447</v>
+        <v>119.9974362530446</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -16285,22 +16285,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577337121622699</v>
+        <v>0.5773371216226989</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P12">
-        <v>0.5773317688655721</v>
+        <v>0.577331768865572</v>
       </c>
       <c r="Q12">
-        <v>60.00287345412424</v>
+        <v>60.00287345412427</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -16347,22 +16347,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371216226989</v>
+        <v>0.577337121622699</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962932</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P13">
-        <v>0.577331768865572</v>
+        <v>0.5773317688655719</v>
       </c>
       <c r="Q13">
-        <v>60.00287345412422</v>
+        <v>60.00287345412427</v>
       </c>
       <c r="R13">
         <v>-89.99999999999589</v>
       </c>
       <c r="S13">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -16409,19 +16409,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773371248284841</v>
+        <v>0.5773371248284845</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P14">
-        <v>0.5773317679460502</v>
+        <v>0.57733176794605</v>
       </c>
       <c r="Q14">
-        <v>60.00287337577939</v>
+        <v>60.00287337577946</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S14">
         <v>119.9974335257321</v>
@@ -16471,19 +16471,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773371269656744</v>
+        <v>0.5773371269656745</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P15">
-        <v>0.577331767333036</v>
+        <v>0.5773317673330356</v>
       </c>
       <c r="Q15">
-        <v>60.00287332354947</v>
+        <v>60.00287332354955</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S15">
         <v>119.9974337355254</v>
@@ -16536,16 +16536,16 @@
         <v>0.5773371205541038</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P16">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720793</v>
       </c>
       <c r="Q16">
-        <v>60.0028734802392</v>
+        <v>60.00287348023921</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>119.9974331061456</v>
@@ -16595,16 +16595,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541039</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P17">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720791</v>
       </c>
       <c r="Q17">
-        <v>60.00287348023918</v>
+        <v>60.00287348023923</v>
       </c>
       <c r="R17">
         <v>-89.99999999999589</v>
@@ -16657,19 +16657,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371301714597</v>
+        <v>0.5773371301714603</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P18">
-        <v>0.5773317664135137</v>
+        <v>0.5773317664135136</v>
       </c>
       <c r="Q18">
-        <v>60.0028732452047</v>
+        <v>60.00287324520474</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S18">
         <v>119.9974340502153</v>
@@ -16719,22 +16719,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458409</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P19">
-        <v>0.5773317651874846</v>
+        <v>0.5773317651874844</v>
       </c>
       <c r="Q19">
-        <v>60.00287314074493</v>
+        <v>60.00287314074498</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S19">
-        <v>119.9974344698018</v>
+        <v>119.9974344698019</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371376516255</v>
+        <v>0.5773371376516264</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P20">
-        <v>0.5773317642679627</v>
+        <v>0.5773317642679626</v>
       </c>
       <c r="Q20">
-        <v>60.00287306240011</v>
+        <v>60.00287306240016</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S20">
-        <v>119.9974347844917</v>
+        <v>119.9974347844918</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,19 +16843,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202215</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962924</v>
+        <v>0.999999999996293</v>
       </c>
       <c r="P21">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614554</v>
       </c>
       <c r="Q21">
-        <v>60.00287303628517</v>
+        <v>60.00287303628521</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S21">
         <v>119.9974348893884</v>
@@ -16965,16 +16965,16 @@
         <v>0.01243393518288672</v>
       </c>
       <c r="I2">
-        <v>0.12435938670569</v>
+        <v>0.1243593867056899</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526076</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -16989,16 +16989,16 @@
         <v>0.5773317846526229</v>
       </c>
       <c r="Q2">
-        <v>60.00287276714362</v>
+        <v>60.00287276714363</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>119.997431871703</v>
+        <v>119.9974318717029</v>
       </c>
       <c r="T2">
-        <v>46.19055539395241</v>
+        <v>46.19055539395242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -17042,22 +17042,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773371184169133</v>
+        <v>0.5773371184169134</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P3">
-        <v>0.5773317697850939</v>
+        <v>0.5773317697850937</v>
       </c>
       <c r="Q3">
-        <v>60.00287353246908</v>
+        <v>60.00287353246912</v>
       </c>
       <c r="R3">
         <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>119.9974328963524</v>
+        <v>119.9974328963523</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,19 +17104,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202216</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P4">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614554</v>
       </c>
       <c r="Q4">
-        <v>60.00287303628517</v>
+        <v>60.00287303628519</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S4">
         <v>119.9974348893884</v>
@@ -17166,22 +17166,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458406</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P5">
-        <v>0.5773317651874855</v>
+        <v>0.5773317651874847</v>
       </c>
       <c r="Q5">
-        <v>60.00287314074482</v>
+        <v>60.00287314074493</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
-        <v>119.9974344698019</v>
+        <v>119.9974344698018</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -17228,22 +17228,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371408574111</v>
+        <v>0.5773371408574114</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962932</v>
       </c>
       <c r="P6">
-        <v>0.5773317633484423</v>
+        <v>0.5773317633484414</v>
       </c>
       <c r="Q6">
-        <v>60.00287298405514</v>
+        <v>60.00287298405524</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999595</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S6">
-        <v>119.9974350991817</v>
+        <v>119.9974350991816</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -17290,22 +17290,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773371462003867</v>
+        <v>0.5773371462003871</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P7">
-        <v>0.5773317618159062</v>
+        <v>0.5773317618159052</v>
       </c>
       <c r="Q7">
-        <v>60.00287285348041</v>
+        <v>60.00287285348051</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S7">
-        <v>119.9974356236649</v>
+        <v>119.9974356236648</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -17352,22 +17352,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773371472689818</v>
+        <v>0.5773371472689822</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P8">
-        <v>0.5773317615093989</v>
+        <v>0.5773317615093981</v>
       </c>
       <c r="Q8">
-        <v>60.00287282736547</v>
+        <v>60.00287282736555</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S8">
-        <v>119.9974357285615</v>
+        <v>119.9974357285614</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -17414,22 +17414,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371494061721</v>
+        <v>0.5773371494061725</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962924</v>
+        <v>0.999999999996293</v>
       </c>
       <c r="P9">
-        <v>0.5773317608963846</v>
+        <v>0.5773317608963837</v>
       </c>
       <c r="Q9">
-        <v>60.00287277513556</v>
+        <v>60.00287277513565</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S9">
-        <v>119.9974359383548</v>
+        <v>119.9974359383547</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -17476,22 +17476,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371515433625</v>
+        <v>0.5773371515433628</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P10">
-        <v>0.5773317602833702</v>
+        <v>0.5773317602833694</v>
       </c>
       <c r="Q10">
-        <v>60.00287272290565</v>
+        <v>60.00287272290574</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S10">
-        <v>119.9974361481481</v>
+        <v>119.997436148148</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -17538,22 +17538,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371526119577</v>
+        <v>0.5773371526119581</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P11">
-        <v>0.577331759976863</v>
+        <v>0.5773317599768621</v>
       </c>
       <c r="Q11">
-        <v>60.0028726967907</v>
+        <v>60.0028726967908</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S11">
-        <v>119.9974362530447</v>
+        <v>119.9974362530446</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17600,22 +17600,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577337121622699</v>
+        <v>0.5773371216226989</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P12">
-        <v>0.5773317688655721</v>
+        <v>0.577331768865572</v>
       </c>
       <c r="Q12">
-        <v>60.00287345412424</v>
+        <v>60.00287345412427</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -17662,22 +17662,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371216226989</v>
+        <v>0.577337121622699</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962932</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P13">
-        <v>0.577331768865572</v>
+        <v>0.5773317688655719</v>
       </c>
       <c r="Q13">
-        <v>60.00287345412422</v>
+        <v>60.00287345412427</v>
       </c>
       <c r="R13">
         <v>-89.99999999999589</v>
       </c>
       <c r="S13">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -17724,19 +17724,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773371248284841</v>
+        <v>0.5773371248284845</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P14">
-        <v>0.5773317679460502</v>
+        <v>0.57733176794605</v>
       </c>
       <c r="Q14">
-        <v>60.00287337577939</v>
+        <v>60.00287337577946</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S14">
         <v>119.9974335257321</v>
@@ -17786,19 +17786,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773371269656744</v>
+        <v>0.5773371269656745</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P15">
-        <v>0.577331767333036</v>
+        <v>0.5773317673330356</v>
       </c>
       <c r="Q15">
-        <v>60.00287332354947</v>
+        <v>60.00287332354955</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S15">
         <v>119.9974337355254</v>
@@ -17851,16 +17851,16 @@
         <v>0.5773371205541038</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P16">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720793</v>
       </c>
       <c r="Q16">
-        <v>60.0028734802392</v>
+        <v>60.00287348023921</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>119.9974331061456</v>
@@ -17910,16 +17910,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541039</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P17">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720791</v>
       </c>
       <c r="Q17">
-        <v>60.00287348023918</v>
+        <v>60.00287348023923</v>
       </c>
       <c r="R17">
         <v>-89.99999999999589</v>
@@ -17972,19 +17972,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371301714597</v>
+        <v>0.5773371301714603</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P18">
-        <v>0.5773317664135137</v>
+        <v>0.5773317664135136</v>
       </c>
       <c r="Q18">
-        <v>60.0028732452047</v>
+        <v>60.00287324520474</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S18">
         <v>119.9974340502153</v>
@@ -18034,22 +18034,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458409</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P19">
-        <v>0.5773317651874846</v>
+        <v>0.5773317651874844</v>
       </c>
       <c r="Q19">
-        <v>60.00287314074493</v>
+        <v>60.00287314074498</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S19">
-        <v>119.9974344698018</v>
+        <v>119.9974344698019</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371376516255</v>
+        <v>0.5773371376516264</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P20">
-        <v>0.5773317642679627</v>
+        <v>0.5773317642679626</v>
       </c>
       <c r="Q20">
-        <v>60.00287306240011</v>
+        <v>60.00287306240016</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S20">
-        <v>119.9974347844917</v>
+        <v>119.9974347844918</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,19 +18158,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202215</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962924</v>
+        <v>0.999999999996293</v>
       </c>
       <c r="P21">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614554</v>
       </c>
       <c r="Q21">
-        <v>60.00287303628517</v>
+        <v>60.00287303628521</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S21">
         <v>119.9974348893884</v>
@@ -18280,16 +18280,16 @@
         <v>0.01243393518288672</v>
       </c>
       <c r="I2">
-        <v>0.12435938670569</v>
+        <v>0.1243593867056899</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526076</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -18360,7 +18360,7 @@
         <v>0.9900480075285182</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P3">
         <v>0.9963798889737164</v>
@@ -18419,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.990048007738098</v>
+        <v>0.9900480077380981</v>
       </c>
       <c r="O4">
         <v>0.9999999999994827</v>
@@ -18608,7 +18608,7 @@
         <v>0.9900480078153118</v>
       </c>
       <c r="O7">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P7">
         <v>0.9963798887599798</v>
@@ -18732,10 +18732,10 @@
         <v>0.9900480078484034</v>
       </c>
       <c r="O9">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P9">
-        <v>0.9963798887353181</v>
+        <v>0.996379888735318</v>
       </c>
       <c r="Q9">
         <v>29.91230372997404</v>
@@ -18794,10 +18794,10 @@
         <v>0.9900480078704643</v>
       </c>
       <c r="O10">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188767</v>
+        <v>0.9963798887188769</v>
       </c>
       <c r="Q10">
         <v>29.91230373179153</v>
@@ -18856,7 +18856,7 @@
         <v>0.9900480078814951</v>
       </c>
       <c r="O11">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P11">
         <v>0.9963798887106561</v>
@@ -18915,10 +18915,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9900480075616098</v>
+        <v>0.9900480075616096</v>
       </c>
       <c r="O12">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P12">
         <v>0.9963798889490544</v>
@@ -18977,10 +18977,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9900480075616098</v>
+        <v>0.9900480075616096</v>
       </c>
       <c r="O13">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P13">
         <v>0.9963798889490544</v>
@@ -19039,10 +19039,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9900480075947011</v>
+        <v>0.9900480075947012</v>
       </c>
       <c r="O14">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P14">
         <v>0.9963798889243926</v>
@@ -19101,10 +19101,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076167624</v>
+        <v>0.9900480076167623</v>
       </c>
       <c r="O15">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P15">
         <v>0.9963798889079513</v>
@@ -19166,7 +19166,7 @@
         <v>0.9900480075505791</v>
       </c>
       <c r="O16">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P16">
         <v>0.9963798889572751</v>
@@ -19228,7 +19228,7 @@
         <v>0.9900480075505791</v>
       </c>
       <c r="O17">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P17">
         <v>0.9963798889572751</v>
@@ -19290,7 +19290,7 @@
         <v>0.9900480076498539</v>
       </c>
       <c r="O18">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P18">
         <v>0.9963798888832895</v>
@@ -19349,10 +19349,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480076939758</v>
+        <v>0.9900480076939761</v>
       </c>
       <c r="O19">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P19">
         <v>0.996379888850407</v>
@@ -19411,10 +19411,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9900480077270675</v>
+        <v>0.9900480077270676</v>
       </c>
       <c r="O20">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P20">
         <v>0.9963798888257449</v>
@@ -19473,7 +19473,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.990048007738098</v>
+        <v>0.9900480077380981</v>
       </c>
       <c r="O21">
         <v>0.9999999999994827</v>
@@ -19595,16 +19595,16 @@
         <v>0.01243393518288672</v>
       </c>
       <c r="I2">
-        <v>0.12435938670569</v>
+        <v>0.1243593867056899</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526076</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -19675,7 +19675,7 @@
         <v>0.9900480075285182</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P3">
         <v>0.9963798889737164</v>
@@ -19734,7 +19734,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.990048007738098</v>
+        <v>0.9900480077380981</v>
       </c>
       <c r="O4">
         <v>0.9999999999994827</v>
@@ -19923,7 +19923,7 @@
         <v>0.9900480078153118</v>
       </c>
       <c r="O7">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P7">
         <v>0.9963798887599798</v>
@@ -20047,10 +20047,10 @@
         <v>0.9900480078484034</v>
       </c>
       <c r="O9">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P9">
-        <v>0.9963798887353181</v>
+        <v>0.996379888735318</v>
       </c>
       <c r="Q9">
         <v>29.91230372997404</v>
@@ -20109,10 +20109,10 @@
         <v>0.9900480078704643</v>
       </c>
       <c r="O10">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188767</v>
+        <v>0.9963798887188769</v>
       </c>
       <c r="Q10">
         <v>29.91230373179153</v>
@@ -20171,7 +20171,7 @@
         <v>0.9900480078814951</v>
       </c>
       <c r="O11">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P11">
         <v>0.9963798887106561</v>
@@ -20230,10 +20230,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9900480075616098</v>
+        <v>0.9900480075616096</v>
       </c>
       <c r="O12">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P12">
         <v>0.9963798889490544</v>
@@ -20292,10 +20292,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9900480075616098</v>
+        <v>0.9900480075616096</v>
       </c>
       <c r="O13">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P13">
         <v>0.9963798889490544</v>
@@ -20354,10 +20354,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9900480075947011</v>
+        <v>0.9900480075947012</v>
       </c>
       <c r="O14">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P14">
         <v>0.9963798889243926</v>
@@ -20416,10 +20416,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076167624</v>
+        <v>0.9900480076167623</v>
       </c>
       <c r="O15">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P15">
         <v>0.9963798889079513</v>
@@ -20481,7 +20481,7 @@
         <v>0.9900480075505791</v>
       </c>
       <c r="O16">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P16">
         <v>0.9963798889572751</v>
@@ -20543,7 +20543,7 @@
         <v>0.9900480075505791</v>
       </c>
       <c r="O17">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P17">
         <v>0.9963798889572751</v>
@@ -20605,7 +20605,7 @@
         <v>0.9900480076498539</v>
       </c>
       <c r="O18">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P18">
         <v>0.9963798888832895</v>
@@ -20664,10 +20664,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480076939758</v>
+        <v>0.9900480076939761</v>
       </c>
       <c r="O19">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P19">
         <v>0.996379888850407</v>
@@ -20726,10 +20726,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9900480077270675</v>
+        <v>0.9900480077270676</v>
       </c>
       <c r="O20">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P20">
         <v>0.9963798888257449</v>
@@ -20788,7 +20788,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.990048007738098</v>
+        <v>0.9900480077380981</v>
       </c>
       <c r="O21">
         <v>0.9999999999994827</v>
@@ -20895,7 +20895,7 @@
         <v>57.7361891589993</v>
       </c>
       <c r="D2">
-        <v>57.73665779988408</v>
+        <v>57.73665779988409</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -20907,19 +20907,19 @@
         <v>333.3427492287238</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686274</v>
+        <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -20934,7 +20934,7 @@
         <v>0.6350546586685618</v>
       </c>
       <c r="Q2">
-        <v>0.0002685308235050258</v>
+        <v>0.0002685308235284515</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20943,7 +20943,7 @@
         <v>-179.9997314682416</v>
       </c>
       <c r="T2">
-        <v>57.74060313987399</v>
+        <v>57.74060313987401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -20987,16 +20987,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546429056423</v>
+        <v>0.6350546429056418</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350546760135926</v>
+        <v>0.6350546760135921</v>
       </c>
       <c r="Q3">
-        <v>0.0002695176214235225</v>
+        <v>0.0002695176215595837</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -21049,16 +21049,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350546326853445</v>
+        <v>0.6350546326853419</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350546945307262</v>
+        <v>0.6350546945307255</v>
       </c>
       <c r="Q4">
-        <v>0.0002709143440116555</v>
+        <v>0.0002709143441678736</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -21111,16 +21111,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350546348369831</v>
+        <v>0.6350546348369829</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350546906323825</v>
+        <v>0.6350546906323807</v>
       </c>
       <c r="Q5">
-        <v>0.0002706202969112642</v>
+        <v>0.0002706202972173213</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21179,10 +21179,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350546964798983</v>
+        <v>0.6350546964798962</v>
       </c>
       <c r="Q6">
-        <v>0.0002710613671195446</v>
+        <v>0.0002710613674925847</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21235,16 +21235,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350546289199663</v>
+        <v>0.6350546289199662</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350547013528283</v>
+        <v>0.6350547013528256</v>
       </c>
       <c r="Q7">
-        <v>0.0002714289256454102</v>
+        <v>0.00027142892605078</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -21297,22 +21297,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.635054628382056</v>
+        <v>0.6350546283820554</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350547023274143</v>
+        <v>0.6350547023274113</v>
       </c>
       <c r="Q8">
-        <v>0.0002715024373700344</v>
+        <v>0.0002715024377745686</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9997305885446</v>
+        <v>-179.9997305885447</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -21359,16 +21359,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546273062345</v>
+        <v>0.6350546273062343</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350547042765862</v>
+        <v>0.6350547042765834</v>
       </c>
       <c r="Q9">
-        <v>0.0002716494607616616</v>
+        <v>0.0002716494611670167</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,16 +21421,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350546262304131</v>
+        <v>0.635054626230413</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350547062257581</v>
+        <v>0.6350547062257553</v>
       </c>
       <c r="Q10">
-        <v>0.0002717964841704757</v>
+        <v>0.0002717964845758218</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -21483,16 +21483,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350546256925024</v>
+        <v>0.6350546256925022</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.635054707200344</v>
+        <v>0.6350547072003413</v>
       </c>
       <c r="Q11">
-        <v>0.0002718699958779801</v>
+        <v>0.0002718699962833229</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -21545,22 +21545,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.63505464129191</v>
+        <v>0.6350546412919094</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350546789373503</v>
+        <v>0.63505467893735</v>
       </c>
       <c r="Q12">
-        <v>0.0002697381565230435</v>
+        <v>0.0002697381566548579</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9997307152846</v>
+        <v>-179.9997307152845</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -21607,16 +21607,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.63505464129191</v>
+        <v>0.6350546412919096</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350546789373502</v>
+        <v>0.63505467893735</v>
       </c>
       <c r="Q13">
-        <v>0.0002697381564836098</v>
+        <v>0.0002697381566757476</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -21669,16 +21669,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350546396781798</v>
+        <v>0.6350546396781787</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350546818611084</v>
+        <v>0.6350546818611081</v>
       </c>
       <c r="Q14">
-        <v>0.0002699586916905751</v>
+        <v>0.0002699586918264019</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -21731,22 +21731,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546386023574</v>
+        <v>0.6350546386023572</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350546838102805</v>
+        <v>0.6350546838102795</v>
       </c>
       <c r="Q15">
-        <v>0.0002701057150092577</v>
+        <v>0.0002701057152325576</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9997306888804</v>
+        <v>-179.9997306888805</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -21793,16 +21793,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.635054641829821</v>
+        <v>0.6350546418298203</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350546779627644</v>
+        <v>0.6350546779627639</v>
       </c>
       <c r="Q16">
-        <v>0.0002696646448181033</v>
+        <v>0.000269664644955704</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21855,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.635054641829821</v>
+        <v>0.6350546418298203</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350546779627643</v>
+        <v>0.6350546779627639</v>
       </c>
       <c r="Q17">
-        <v>0.000269664644799669</v>
+        <v>0.0002696646449603045</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21917,16 +21917,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350546369886277</v>
+        <v>0.6350546369886261</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350546867340383</v>
+        <v>0.635054686734038</v>
       </c>
       <c r="Q18">
-        <v>0.000270326250269405</v>
+        <v>0.0002703262504154103</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -21979,16 +21979,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350546348369862</v>
+        <v>0.6350546348369841</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350546906323822</v>
+        <v>0.6350546906323816</v>
       </c>
       <c r="Q19">
-        <v>0.0002706202971544906</v>
+        <v>0.000270620297296535</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -22041,16 +22041,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350546332232551</v>
+        <v>0.6350546332232526</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350546935561403</v>
+        <v>0.6350546935561395</v>
       </c>
       <c r="Q20">
-        <v>0.0002708408323108713</v>
+        <v>0.0002708408324618128</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -22103,16 +22103,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546326853445</v>
+        <v>0.635054632685342</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350546945307262</v>
+        <v>0.6350546945307255</v>
       </c>
       <c r="Q21">
-        <v>0.0002709143440058723</v>
+        <v>0.000270914344168377</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -22210,7 +22210,7 @@
         <v>57.73618905602832</v>
       </c>
       <c r="D2">
-        <v>57.73665686329454</v>
+        <v>57.73665686329453</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -22240,7 +22240,7 @@
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350546700868613</v>
+        <v>0.6350546700868611</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350546701028627</v>
       </c>
       <c r="Q2">
-        <v>0.0002680531534665988</v>
+        <v>0.0002680531534784995</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22302,16 +22302,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546535900897</v>
+        <v>0.6350546535900889</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350546882738473</v>
+        <v>0.6350546882738465</v>
       </c>
       <c r="Q3">
-        <v>0.0002690869418238774</v>
+        <v>0.0002690869419826315</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -22364,16 +22364,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350546433697914</v>
+        <v>0.6350546433697892</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350547067909806</v>
+        <v>0.6350547067909792</v>
       </c>
       <c r="Q4">
-        <v>0.0002704836643923487</v>
+        <v>0.0002704836645472922</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -22426,22 +22426,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350546455214301</v>
+        <v>0.6350546455214298</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350547028926374</v>
+        <v>0.6350547028926351</v>
       </c>
       <c r="Q5">
-        <v>0.0002701896172693376</v>
+        <v>0.0002701896175890552</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.999731094484</v>
+        <v>-179.9997310944841</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -22488,16 +22488,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350546422939662</v>
+        <v>0.6350546422939661</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350547087401528</v>
+        <v>0.6350547087401502</v>
       </c>
       <c r="Q6">
-        <v>0.0002706306874534155</v>
+        <v>0.0002706306878511747</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350546396044132</v>
+        <v>0.635054639604413</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350547136130827</v>
+        <v>0.6350547136130795</v>
       </c>
       <c r="Q7">
-        <v>0.000270998245974966</v>
+        <v>0.0002709982463985773</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -22618,10 +22618,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350547145876688</v>
+        <v>0.6350547145876654</v>
       </c>
       <c r="Q8">
-        <v>0.0002710717576754486</v>
+        <v>0.0002710717581136054</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -22674,16 +22674,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546379906811</v>
+        <v>0.635054637990681</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350547165368404</v>
+        <v>0.6350547165368373</v>
       </c>
       <c r="Q9">
-        <v>0.0002712187810726004</v>
+        <v>0.0002712187815077615</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -22736,16 +22736,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350546369148599</v>
+        <v>0.6350546369148595</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350547184860124</v>
+        <v>0.6350547184860093</v>
       </c>
       <c r="Q10">
-        <v>0.0002713658044767139</v>
+        <v>0.0002713658049118653</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22798,16 +22798,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.635054636376949</v>
+        <v>0.6350546363769489</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350547194605983</v>
+        <v>0.6350547194605952</v>
       </c>
       <c r="Q11">
-        <v>0.000271439316181868</v>
+        <v>0.000271439316617016</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22860,16 +22860,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350546519763572</v>
+        <v>0.6350546519763569</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350546911976053</v>
+        <v>0.6350546911976045</v>
       </c>
       <c r="Q12">
-        <v>0.0002693074769283624</v>
+        <v>0.0002693074770713951</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350546519763572</v>
+        <v>0.6350546519763569</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350546911976053</v>
+        <v>0.6350546911976043</v>
       </c>
       <c r="Q13">
-        <v>0.0002693074768649205</v>
+        <v>0.0002693074770932087</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350546503626269</v>
+        <v>0.6350546503626261</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350546941213634</v>
+        <v>0.6350546941213622</v>
       </c>
       <c r="Q14">
-        <v>0.0002695280120891297</v>
+        <v>0.0002695280122531133</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -23046,16 +23046,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546492868046</v>
+        <v>0.6350546492868042</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350546960705353</v>
+        <v>0.6350546960705339</v>
       </c>
       <c r="Q15">
-        <v>0.000269675035394102</v>
+        <v>0.0002696750356255693</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -23108,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350546525142682</v>
+        <v>0.6350546525142676</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350546902230193</v>
+        <v>0.6350546902230185</v>
       </c>
       <c r="Q16">
-        <v>0.0002692339652199894</v>
+        <v>0.0002692339653688085</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -23170,22 +23170,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350546525142682</v>
+        <v>0.6350546525142677</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350546902230193</v>
+        <v>0.6350546902230184</v>
       </c>
       <c r="Q17">
-        <v>0.0002692339651917118</v>
+        <v>0.000269233965389245</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9997311631349</v>
+        <v>-179.9997311631348</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.635054647673075</v>
+        <v>0.6350546476730734</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.635054698994293</v>
+        <v>0.6350546989942918</v>
       </c>
       <c r="Q18">
-        <v>0.0002698955706637317</v>
+        <v>0.0002698955708038507</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,16 +23294,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350546455214333</v>
+        <v>0.6350546455214314</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350547028926368</v>
+        <v>0.6350547028926354</v>
       </c>
       <c r="Q19">
-        <v>0.0002701896175388018</v>
+        <v>0.0002701896176740632</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -23356,16 +23356,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350546439077021</v>
+        <v>0.6350546439076999</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350547058163949</v>
+        <v>0.6350547058163932</v>
       </c>
       <c r="Q20">
-        <v>0.0002704101526939147</v>
+        <v>0.0002704101528339749</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546433697914</v>
+        <v>0.6350546433697892</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350547067909806</v>
+        <v>0.6350547067909792</v>
       </c>
       <c r="Q21">
-        <v>0.0002704836643923487</v>
+        <v>0.0002704836645324055</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>5.123517109782726</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686274</v>
+        <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -23871,13 +23871,13 @@
         <v>1.086862152134945</v>
       </c>
       <c r="P7">
-        <v>1.090352558542508</v>
+        <v>1.090352558542507</v>
       </c>
       <c r="Q7">
         <v>29.52465642997524</v>
       </c>
       <c r="R7">
-        <v>-90.55768081989925</v>
+        <v>-90.55768081989926</v>
       </c>
       <c r="S7">
         <v>149.9221292610964</v>
@@ -23992,7 +23992,7 @@
         <v>1.096496872167243</v>
       </c>
       <c r="O9">
-        <v>1.086862152117769</v>
+        <v>1.08686215211777</v>
       </c>
       <c r="P9">
         <v>1.090352558556236</v>
@@ -24116,7 +24116,7 @@
         <v>1.096496872136747</v>
       </c>
       <c r="O11">
-        <v>1.086862152100594</v>
+        <v>1.086862152100595</v>
       </c>
       <c r="P11">
         <v>1.090352558569965</v>
@@ -24429,7 +24429,7 @@
         <v>1.086862152272345</v>
       </c>
       <c r="P16">
-        <v>1.090352558432676</v>
+        <v>1.090352558432677</v>
       </c>
       <c r="Q16">
         <v>29.52465641613167</v>
@@ -25133,7 +25133,7 @@
         <v>-90.55768082552622</v>
       </c>
       <c r="S6">
-        <v>149.9221292582322</v>
+        <v>149.9221292582321</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -25319,7 +25319,7 @@
         <v>-90.55768081483373</v>
       </c>
       <c r="S9">
-        <v>149.9221292642402</v>
+        <v>149.9221292642401</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -25437,7 +25437,7 @@
         <v>1.090352558569357</v>
       </c>
       <c r="Q11">
-        <v>29.52465643381365</v>
+        <v>29.52465643381366</v>
       </c>
       <c r="R11">
         <v>-90.55768081082404</v>
@@ -25561,7 +25561,7 @@
         <v>1.090352558436645</v>
       </c>
       <c r="Q13">
-        <v>29.524656417086</v>
+        <v>29.52465641708601</v>
       </c>
       <c r="R13">
         <v>-90.55768084958433</v>
@@ -25682,7 +25682,7 @@
         <v>1.086862152224225</v>
       </c>
       <c r="P15">
-        <v>1.090352558459527</v>
+        <v>1.090352558459526</v>
       </c>
       <c r="Q15">
         <v>29.52465641997009</v>
@@ -25933,7 +25933,7 @@
         <v>1.09035255849156</v>
       </c>
       <c r="Q19">
-        <v>29.52465642400779</v>
+        <v>29.5246564240078</v>
       </c>
       <c r="R19">
         <v>-90.55768083354559</v>
@@ -26152,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18907668571199</v>
+        <v>46.18907668571197</v>
       </c>
       <c r="D2">
         <v>46.18950210354603</v>
@@ -26164,13 +26164,13 @@
         <v>266.6727585811608</v>
       </c>
       <c r="G2">
-        <v>266.6752147321709</v>
+        <v>266.6752147321708</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -26179,13 +26179,13 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.5773186145024687</v>
+        <v>0.5773186145024688</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -26194,7 +26194,7 @@
         <v>0.5773186144816088</v>
       </c>
       <c r="Q2">
-        <v>0.0003047078022327568</v>
+        <v>0.0003047078022454724</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>-179.9996952927372</v>
       </c>
       <c r="T2">
-        <v>46.19308790992186</v>
+        <v>46.19308790992185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -26247,22 +26247,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773185996363969</v>
+        <v>0.5773185996363968</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186308564657</v>
+        <v>0.5773186308564654</v>
       </c>
       <c r="Q3">
-        <v>0.0003057325834278347</v>
+        <v>0.0003057325834861583</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9996945272498</v>
+        <v>-179.9996945272499</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -26309,22 +26309,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148545</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597825</v>
       </c>
       <c r="Q4">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561499842</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9996950232468</v>
+        <v>-179.9996950232469</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185950404427</v>
+        <v>0.5773185950404415</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577318646885401</v>
+        <v>0.5773186468853995</v>
       </c>
       <c r="Q5">
-        <v>0.0003073060618806023</v>
+        <v>0.0003073060619348502</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9996949188263</v>
+        <v>-179.9996949188264</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -26433,22 +26433,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185932020615</v>
+        <v>0.5773185932020598</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577318653296975</v>
+        <v>0.5773186532969731</v>
       </c>
       <c r="Q6">
-        <v>0.0003079354532812322</v>
+        <v>0.0003079354532998508</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950754569</v>
+        <v>-179.9996950754571</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318591670077</v>
+        <v>0.577318591670075</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773186586399531</v>
+        <v>0.5773186586399509</v>
       </c>
       <c r="Q7">
-        <v>0.0003084599461170235</v>
+        <v>0.0003084599461208061</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952059824</v>
+        <v>-179.9996952059826</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773185913636801</v>
+        <v>0.577318591363678</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186597085487</v>
+        <v>0.5773186597085465</v>
       </c>
       <c r="Q8">
-        <v>0.0003085648446527969</v>
+        <v>0.0003085648446641894</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9996952320875</v>
+        <v>-179.9996952320877</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,22 +26619,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185907508862</v>
+        <v>0.5773185907508842</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186618457402</v>
+        <v>0.577318661845738</v>
       </c>
       <c r="Q9">
-        <v>0.0003087746418110354</v>
+        <v>0.0003087746418084345</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952842977</v>
+        <v>-179.9996952842979</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185901380925</v>
+        <v>0.5773185901380905</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186639829316</v>
+        <v>0.5773186639829295</v>
       </c>
       <c r="Q10">
-        <v>0.0003089844389392091</v>
+        <v>0.0003089844389429564</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999695336508</v>
+        <v>-179.9996953365081</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185898316956</v>
+        <v>0.5773185898316937</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186650515274</v>
+        <v>0.5773186650515252</v>
       </c>
       <c r="Q11">
-        <v>0.0003090893375019144</v>
+        <v>0.0003090893375120186</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953626131</v>
+        <v>-179.9996953626132</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26805,22 +26805,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172057</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577318634062253</v>
+        <v>0.5773186340622526</v>
       </c>
       <c r="Q12">
-        <v>0.0003060472791147639</v>
+        <v>0.0003060472791664358</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -26867,22 +26867,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172056</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186340622528</v>
+        <v>0.5773186340622526</v>
       </c>
       <c r="Q13">
-        <v>0.0003060472790613747</v>
+        <v>0.0003060472791877851</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186372680397</v>
+        <v>0.5773186372680394</v>
       </c>
       <c r="Q14">
-        <v>0.0003063619747672328</v>
+        <v>0.0003063619748653757</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9996946838804</v>
+        <v>-179.9996946838805</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -26991,22 +26991,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185971852213</v>
+        <v>0.5773185971852205</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186394052312</v>
+        <v>0.5773186394052303</v>
       </c>
       <c r="Q15">
-        <v>0.000306571771923021</v>
+        <v>0.0003065717719915562</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9996947360906</v>
+        <v>-179.9996947360907</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -27053,22 +27053,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236028</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186329936574</v>
+        <v>0.5773186329936569</v>
       </c>
       <c r="Q16">
-        <v>0.0003059423805532767</v>
+        <v>0.0003059423806176762</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -27115,22 +27115,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236026</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186329936572</v>
+        <v>0.5773186329936568</v>
       </c>
       <c r="Q17">
-        <v>0.000305942380525701</v>
+        <v>0.0003059423806139195</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -27177,16 +27177,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185962660295</v>
+        <v>0.5773185962660298</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773186426110177</v>
+        <v>0.5773186426110176</v>
       </c>
       <c r="Q18">
-        <v>0.0003068864675365326</v>
+        <v>0.0003068864676649244</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -27239,16 +27239,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185950404416</v>
+        <v>0.5773185950404421</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186468854002</v>
+        <v>0.5773186468853999</v>
       </c>
       <c r="Q19">
-        <v>0.0003073060617433438</v>
+        <v>0.0003073060619071777</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -27301,16 +27301,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185941212506</v>
+        <v>0.5773185941212513</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186500911872</v>
+        <v>0.5773186500911869</v>
       </c>
       <c r="Q20">
-        <v>0.0003076207573873529</v>
+        <v>0.0003076207576003549</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -27363,22 +27363,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148544</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597826</v>
       </c>
       <c r="Q21">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561472233</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9996950232468</v>
+        <v>-179.9996950232469</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -27963,7 +27963,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18907668571199</v>
+        <v>46.18907668571197</v>
       </c>
       <c r="D2">
         <v>46.18950210354603</v>
@@ -27975,13 +27975,13 @@
         <v>266.6727585811608</v>
       </c>
       <c r="G2">
-        <v>266.6752147321709</v>
+        <v>266.6752147321708</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -27990,13 +27990,13 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.5773186145024687</v>
+        <v>0.5773186145024688</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -28005,7 +28005,7 @@
         <v>0.5773186144816088</v>
       </c>
       <c r="Q2">
-        <v>0.0003047078022327568</v>
+        <v>0.0003047078022454724</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>-179.9996952927372</v>
       </c>
       <c r="T2">
-        <v>46.19308790992186</v>
+        <v>46.19308790992185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773185996363969</v>
+        <v>0.5773185996363968</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186308564657</v>
+        <v>0.5773186308564654</v>
       </c>
       <c r="Q3">
-        <v>0.0003057325834278347</v>
+        <v>0.0003057325834861583</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9996945272498</v>
+        <v>-179.9996945272499</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -28120,22 +28120,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148545</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597825</v>
       </c>
       <c r="Q4">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561499842</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9996950232468</v>
+        <v>-179.9996950232469</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -28182,22 +28182,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185950404427</v>
+        <v>0.5773185950404415</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577318646885401</v>
+        <v>0.5773186468853995</v>
       </c>
       <c r="Q5">
-        <v>0.0003073060618806023</v>
+        <v>0.0003073060619348502</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9996949188263</v>
+        <v>-179.9996949188264</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -28244,22 +28244,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185932020615</v>
+        <v>0.5773185932020598</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577318653296975</v>
+        <v>0.5773186532969731</v>
       </c>
       <c r="Q6">
-        <v>0.0003079354532812322</v>
+        <v>0.0003079354532998508</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950754569</v>
+        <v>-179.9996950754571</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318591670077</v>
+        <v>0.577318591670075</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773186586399531</v>
+        <v>0.5773186586399509</v>
       </c>
       <c r="Q7">
-        <v>0.0003084599461170235</v>
+        <v>0.0003084599461208061</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952059824</v>
+        <v>-179.9996952059826</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773185913636801</v>
+        <v>0.577318591363678</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186597085487</v>
+        <v>0.5773186597085465</v>
       </c>
       <c r="Q8">
-        <v>0.0003085648446527969</v>
+        <v>0.0003085648446641894</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9996952320875</v>
+        <v>-179.9996952320877</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,22 +28430,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185907508862</v>
+        <v>0.5773185907508842</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186618457402</v>
+        <v>0.577318661845738</v>
       </c>
       <c r="Q9">
-        <v>0.0003087746418110354</v>
+        <v>0.0003087746418084345</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952842977</v>
+        <v>-179.9996952842979</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185901380925</v>
+        <v>0.5773185901380905</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186639829316</v>
+        <v>0.5773186639829295</v>
       </c>
       <c r="Q10">
-        <v>0.0003089844389392091</v>
+        <v>0.0003089844389429564</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999695336508</v>
+        <v>-179.9996953365081</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185898316956</v>
+        <v>0.5773185898316937</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186650515274</v>
+        <v>0.5773186650515252</v>
       </c>
       <c r="Q11">
-        <v>0.0003090893375019144</v>
+        <v>0.0003090893375120186</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953626131</v>
+        <v>-179.9996953626132</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28616,22 +28616,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172057</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577318634062253</v>
+        <v>0.5773186340622526</v>
       </c>
       <c r="Q12">
-        <v>0.0003060472791147639</v>
+        <v>0.0003060472791664358</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -28678,22 +28678,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172056</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186340622528</v>
+        <v>0.5773186340622526</v>
       </c>
       <c r="Q13">
-        <v>0.0003060472790613747</v>
+        <v>0.0003060472791877851</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -28746,16 +28746,16 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186372680397</v>
+        <v>0.5773186372680394</v>
       </c>
       <c r="Q14">
-        <v>0.0003063619747672328</v>
+        <v>0.0003063619748653757</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9996946838804</v>
+        <v>-179.9996946838805</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -28802,22 +28802,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185971852213</v>
+        <v>0.5773185971852205</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186394052312</v>
+        <v>0.5773186394052303</v>
       </c>
       <c r="Q15">
-        <v>0.000306571771923021</v>
+        <v>0.0003065717719915562</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9996947360906</v>
+        <v>-179.9996947360907</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -28864,22 +28864,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236028</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186329936574</v>
+        <v>0.5773186329936569</v>
       </c>
       <c r="Q16">
-        <v>0.0003059423805532767</v>
+        <v>0.0003059423806176762</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -28926,22 +28926,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236026</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186329936572</v>
+        <v>0.5773186329936568</v>
       </c>
       <c r="Q17">
-        <v>0.000305942380525701</v>
+        <v>0.0003059423806139195</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -28988,16 +28988,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185962660295</v>
+        <v>0.5773185962660298</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773186426110177</v>
+        <v>0.5773186426110176</v>
       </c>
       <c r="Q18">
-        <v>0.0003068864675365326</v>
+        <v>0.0003068864676649244</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -29050,16 +29050,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185950404416</v>
+        <v>0.5773185950404421</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186468854002</v>
+        <v>0.5773186468853999</v>
       </c>
       <c r="Q19">
-        <v>0.0003073060617433438</v>
+        <v>0.0003073060619071777</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -29112,16 +29112,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185941212506</v>
+        <v>0.5773185941212513</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186500911872</v>
+        <v>0.5773186500911869</v>
       </c>
       <c r="Q20">
-        <v>0.0003076207573873529</v>
+        <v>0.0003076207576003549</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -29174,22 +29174,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148544</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597826</v>
       </c>
       <c r="Q21">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561472233</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9996950232468</v>
+        <v>-179.9996950232469</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -29296,7 +29296,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -29305,10 +29305,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.9963798800464844</v>
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.996379879761804</v>
+        <v>0.9963798797618041</v>
       </c>
       <c r="O3">
         <v>0.9864427565220329</v>
@@ -29503,7 +29503,7 @@
         <v>0.9864427565615096</v>
       </c>
       <c r="P5">
-        <v>0.990048016884122</v>
+        <v>0.9900480168841218</v>
       </c>
       <c r="Q5">
         <v>29.46075694170524</v>
@@ -29565,10 +29565,10 @@
         <v>0.9864427565773003</v>
       </c>
       <c r="P6">
-        <v>0.990048016950305</v>
+        <v>0.9900480169503051</v>
       </c>
       <c r="Q6">
-        <v>29.4607569476879</v>
+        <v>29.46075694768789</v>
       </c>
       <c r="R6">
         <v>-90.63269604646727</v>
@@ -29621,13 +29621,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798795480683</v>
+        <v>0.9963798795480679</v>
       </c>
       <c r="O7">
         <v>0.9864427565904591</v>
       </c>
       <c r="P7">
-        <v>0.9900480170054576</v>
+        <v>0.9900480170054574</v>
       </c>
       <c r="Q7">
         <v>29.46075695267345</v>
@@ -29683,13 +29683,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798795398476</v>
+        <v>0.9963798795398474</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480170164879</v>
+        <v>0.990048017016488</v>
       </c>
       <c r="Q8">
         <v>29.46075695367056</v>
@@ -29875,7 +29875,7 @@
         <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480170716406</v>
+        <v>0.9900480170716407</v>
       </c>
       <c r="Q11">
         <v>29.46075695865611</v>
@@ -30123,7 +30123,7 @@
         <v>0.9864427565430871</v>
       </c>
       <c r="P15">
-        <v>0.9900480168069085</v>
+        <v>0.9900480168069083</v>
       </c>
       <c r="Q15">
         <v>29.46075693472547</v>
@@ -30179,16 +30179,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9963798797453629</v>
+        <v>0.9963798797453628</v>
       </c>
       <c r="O16">
         <v>0.9864427565272964</v>
       </c>
       <c r="P16">
-        <v>0.9900480167407255</v>
+        <v>0.9900480167407254</v>
       </c>
       <c r="Q16">
-        <v>29.46075692874281</v>
+        <v>29.4607569287428</v>
       </c>
       <c r="R16">
         <v>-90.63269608303263</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9963798797453629</v>
+        <v>0.9963798797453628</v>
       </c>
       <c r="O17">
         <v>0.9864427565272964</v>
@@ -30250,7 +30250,7 @@
         <v>0.9900480167407254</v>
       </c>
       <c r="Q17">
-        <v>29.46075692874281</v>
+        <v>29.4607569287428</v>
       </c>
       <c r="R17">
         <v>-90.63269608303263</v>
@@ -30315,7 +30315,7 @@
         <v>29.4607569377168</v>
       </c>
       <c r="R18">
-        <v>-90.6326960657122</v>
+        <v>-90.63269606571221</v>
       </c>
       <c r="S18">
         <v>149.9123035393999</v>
@@ -30371,7 +30371,7 @@
         <v>0.9864427565615095</v>
       </c>
       <c r="P19">
-        <v>0.990048016884122</v>
+        <v>0.9900480168841218</v>
       </c>
       <c r="Q19">
         <v>29.46075694170524</v>
@@ -30436,7 +30436,7 @@
         <v>0.9900480169172134</v>
       </c>
       <c r="Q20">
-        <v>29.46075694469656</v>
+        <v>29.46075694469657</v>
       </c>
       <c r="R20">
         <v>-90.63269605224076</v>
@@ -30498,7 +30498,7 @@
         <v>0.9900480169282441</v>
       </c>
       <c r="Q21">
-        <v>29.46075694569368</v>
+        <v>29.46075694569367</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -30611,7 +30611,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -30620,10 +30620,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.9963798800464844</v>
@@ -30688,7 +30688,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.996379879761804</v>
+        <v>0.9963798797618041</v>
       </c>
       <c r="O3">
         <v>0.9864427565220329</v>
@@ -30818,7 +30818,7 @@
         <v>0.9864427565615096</v>
       </c>
       <c r="P5">
-        <v>0.990048016884122</v>
+        <v>0.9900480168841218</v>
       </c>
       <c r="Q5">
         <v>29.46075694170524</v>
@@ -30880,10 +30880,10 @@
         <v>0.9864427565773003</v>
       </c>
       <c r="P6">
-        <v>0.990048016950305</v>
+        <v>0.9900480169503051</v>
       </c>
       <c r="Q6">
-        <v>29.4607569476879</v>
+        <v>29.46075694768789</v>
       </c>
       <c r="R6">
         <v>-90.63269604646727</v>
@@ -30936,13 +30936,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798795480683</v>
+        <v>0.9963798795480679</v>
       </c>
       <c r="O7">
         <v>0.9864427565904591</v>
       </c>
       <c r="P7">
-        <v>0.9900480170054576</v>
+        <v>0.9900480170054574</v>
       </c>
       <c r="Q7">
         <v>29.46075695267345</v>
@@ -30998,13 +30998,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798795398476</v>
+        <v>0.9963798795398474</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480170164879</v>
+        <v>0.990048017016488</v>
       </c>
       <c r="Q8">
         <v>29.46075695367056</v>
@@ -31190,7 +31190,7 @@
         <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480170716406</v>
+        <v>0.9900480170716407</v>
       </c>
       <c r="Q11">
         <v>29.46075695865611</v>
@@ -31438,7 +31438,7 @@
         <v>0.9864427565430871</v>
       </c>
       <c r="P15">
-        <v>0.9900480168069085</v>
+        <v>0.9900480168069083</v>
       </c>
       <c r="Q15">
         <v>29.46075693472547</v>
@@ -31494,16 +31494,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9963798797453629</v>
+        <v>0.9963798797453628</v>
       </c>
       <c r="O16">
         <v>0.9864427565272964</v>
       </c>
       <c r="P16">
-        <v>0.9900480167407255</v>
+        <v>0.9900480167407254</v>
       </c>
       <c r="Q16">
-        <v>29.46075692874281</v>
+        <v>29.4607569287428</v>
       </c>
       <c r="R16">
         <v>-90.63269608303263</v>
@@ -31556,7 +31556,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9963798797453629</v>
+        <v>0.9963798797453628</v>
       </c>
       <c r="O17">
         <v>0.9864427565272964</v>
@@ -31565,7 +31565,7 @@
         <v>0.9900480167407254</v>
       </c>
       <c r="Q17">
-        <v>29.46075692874281</v>
+        <v>29.4607569287428</v>
       </c>
       <c r="R17">
         <v>-90.63269608303263</v>
@@ -31630,7 +31630,7 @@
         <v>29.4607569377168</v>
       </c>
       <c r="R18">
-        <v>-90.6326960657122</v>
+        <v>-90.63269606571221</v>
       </c>
       <c r="S18">
         <v>149.9123035393999</v>
@@ -31686,7 +31686,7 @@
         <v>0.9864427565615095</v>
       </c>
       <c r="P19">
-        <v>0.990048016884122</v>
+        <v>0.9900480168841218</v>
       </c>
       <c r="Q19">
         <v>29.46075694170524</v>
@@ -31751,7 +31751,7 @@
         <v>0.9900480169172134</v>
       </c>
       <c r="Q20">
-        <v>29.46075694469656</v>
+        <v>29.46075694469657</v>
       </c>
       <c r="R20">
         <v>-90.63269605224076</v>
@@ -31813,7 +31813,7 @@
         <v>0.9900480169282441</v>
       </c>
       <c r="Q21">
-        <v>29.46075694569368</v>
+        <v>29.46075694569367</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -34385,34 +34385,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.0000028350735</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="D2">
-        <v>50.0000028350735</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="G2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686274</v>
+        <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -34424,10 +34424,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833882</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.692344207065613E-11</v>
+        <v>-8.692315979556418E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,7 +34477,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343816</v>
+        <v>0.9526279482343811</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -34486,7 +34486,7 @@
         <v>0.9526279813293725</v>
       </c>
       <c r="Q3">
-        <v>8.313209709952376E-08</v>
+        <v>8.313219470538822E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -34536,16 +34536,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656304</v>
+        <v>0.9526279338656296</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279956981213</v>
+        <v>0.9526279956981215</v>
       </c>
       <c r="Q4">
-        <v>5.152361210745467E-07</v>
+        <v>5.152362139534054E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -34595,16 +34595,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906287</v>
+        <v>0.9526279368906293</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279926731219</v>
+        <v>0.9526279926731211</v>
       </c>
       <c r="Q5">
-        <v>4.242666813105824E-07</v>
+        <v>4.242668897810896E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -34654,16 +34654,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279323531278</v>
+        <v>0.9526279323531288</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279972106217</v>
+        <v>0.952627997210621</v>
       </c>
       <c r="Q6">
-        <v>5.607205153172291E-07</v>
+        <v>5.607207681256518E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718769</v>
+        <v>0.9526279285718784</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918715</v>
+        <v>0.9526280009918705</v>
       </c>
       <c r="Q7">
-        <v>6.744320546427133E-07</v>
+        <v>6.744323306602277E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156268</v>
+        <v>0.9526279278156281</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481213</v>
+        <v>0.9526280017481205</v>
       </c>
       <c r="Q8">
-        <v>6.971743643988781E-07</v>
+        <v>6.971746418255512E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -34831,22 +34831,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031264</v>
+        <v>0.9526279263031278</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606214</v>
+        <v>0.9526280032606205</v>
       </c>
       <c r="Q9">
-        <v>7.426589815076927E-07</v>
+        <v>7.426592613725906E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34890,22 +34890,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279247906262</v>
+        <v>0.9526279247906276</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731213</v>
+        <v>0.9526280047731205</v>
       </c>
       <c r="Q10">
-        <v>7.88143595449788E-07</v>
+        <v>7.881438714546804E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,16 +34949,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343761</v>
+        <v>0.9526279240343773</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280055293714</v>
+        <v>0.9526280055293707</v>
       </c>
       <c r="Q11">
-        <v>8.108858999299019E-07</v>
+        <v>8.108861797882717E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -35008,7 +35008,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656305</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0.9526279835981226</v>
       </c>
       <c r="Q12">
-        <v>1.513590059683538E-07</v>
+        <v>1.513591199101757E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35067,16 +35067,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279459656309</v>
+        <v>0.9526279459656305</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981223</v>
+        <v>0.9526279835981224</v>
       </c>
       <c r="Q13">
-        <v>1.51358983260532E-07</v>
+        <v>1.513591234618065E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -35126,16 +35126,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627943696881</v>
+        <v>0.9526279436968804</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668719</v>
+        <v>0.9526279858668723</v>
       </c>
       <c r="Q14">
-        <v>2.195859937277347E-07</v>
+        <v>2.195860844248854E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.95262794218438</v>
+        <v>0.9526279421843803</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.952627987379372</v>
+        <v>0.9526279873793718</v>
       </c>
       <c r="Q15">
-        <v>2.650705414263783E-07</v>
+        <v>2.650706979159283E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -35244,16 +35244,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218807</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418726</v>
+        <v>0.9526279828418724</v>
       </c>
       <c r="Q16">
-        <v>1.28616698680162E-07</v>
+        <v>1.286168087685065E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35303,16 +35303,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279467218811</v>
+        <v>0.9526279467218808</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418721</v>
+        <v>0.9526279828418724</v>
       </c>
       <c r="Q17">
-        <v>1.286166967112127E-07</v>
+        <v>1.286168166132004E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -35362,16 +35362,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156308</v>
+        <v>0.9526279399156301</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481216</v>
+        <v>0.9526279896481219</v>
       </c>
       <c r="Q18">
-        <v>3.332975885122843E-07</v>
+        <v>3.332976761652031E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906307</v>
+        <v>0.9526279368906297</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -35430,13 +35430,13 @@
         <v>0.9526279926731215</v>
       </c>
       <c r="Q19">
-        <v>4.242668641753503E-07</v>
+        <v>4.242669555006895E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995757242</v>
+        <v>179.9999995757241</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -35480,16 +35480,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218806</v>
+        <v>0.9526279346218798</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279949418713</v>
+        <v>0.9526279949418714</v>
       </c>
       <c r="Q20">
-        <v>4.924938149791675E-07</v>
+        <v>4.924939039447904E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -35539,16 +35539,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656304</v>
+        <v>0.9526279338656296</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981213</v>
+        <v>0.9526279956981215</v>
       </c>
       <c r="Q21">
-        <v>5.152361287849824E-07</v>
+        <v>5.152362138936471E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
